--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2212858.254761098</v>
+        <v>2317037.889212171</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>105.4771979831543</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>56.22992883261801</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>142.2765993766885</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>35.70147948867583</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>33.3830437605888</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7944255145775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>85.77388582790053</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>158.8497927386386</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>150.9601371840612</v>
+        <v>245.882229354589</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6824477742723</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>59.09222624065444</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826188748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.405450327292</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417119</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>101.9434035445956</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>107.9721668030643</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.0891016767036</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4774956074566125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>125.9491534982829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>50.0620915095756</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>53.30076123484837</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>46.29306638367395</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6584215897762</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>240.4867949051527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>130.1208074460236</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4325,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>3108.772528910857</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4398,49 +4400,49 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064758</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080137</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.741664998631</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
         <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
@@ -4449,10 +4451,10 @@
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.4520072430311</v>
+        <v>844.89460572423</v>
       </c>
       <c r="C4" t="n">
-        <v>515.5158243151242</v>
+        <v>675.9584227963231</v>
       </c>
       <c r="D4" t="n">
-        <v>515.5158243151242</v>
+        <v>525.8417833839874</v>
       </c>
       <c r="E4" t="n">
-        <v>367.6027307327311</v>
+        <v>377.9286898015943</v>
       </c>
       <c r="F4" t="n">
-        <v>367.6027307327311</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>199.89989410745</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971288</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732708</v>
+        <v>1065.68718486776</v>
       </c>
       <c r="Y4" t="n">
-        <v>866.1004720732708</v>
+        <v>844.89460572423</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.608663915319</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.154327815684</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.164776917667</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,16 +4804,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1441.048461446309</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.945594571953</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>897.2611063660661</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>897.2611063660661</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>897.2611063660661</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.468527222536</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5129,13 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063203</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718107</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,13 +5293,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,10 +5308,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5318,10 +5320,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647281</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>800.5007694647281</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949679</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263526</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>614.6217844681063</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.062828441876</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>796.270249298346</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6074,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558406</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C25" t="n">
-        <v>2588.787486630499</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D25" t="n">
-        <v>2588.787486630499</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E25" t="n">
-        <v>2588.787486630499</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F25" t="n">
-        <v>2588.787486630499</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2421.591387345379</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>144.3844322495634</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>229.7425191625314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>229.7425191625314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459586</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180517</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>449.485266605716</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>449.485266605716</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>449.485266605716</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>282.2891673205959</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>140.577336162794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.146591037918</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.462102832031</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823418</v>
+        <v>66.3752467101264</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6720694736168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>144.1654765207637</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>34.7428785052337</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.1071577446382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>99.76050189075426</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>31.20374480898993</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>86.99395161137548</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>34.97276993489157</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>83.05123379926093</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>45.69767948409142</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>16.31315520054554</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602277</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982122</v>
@@ -26323,37 +26325,37 @@
         <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789305</v>
+        <v>-911861.3698789309</v>
       </c>
       <c r="C6" t="n">
-        <v>416883.3758486619</v>
+        <v>416883.3758486621</v>
       </c>
       <c r="D6" t="n">
         <v>416883.3758486618</v>
       </c>
       <c r="E6" t="n">
-        <v>167047.9819194358</v>
+        <v>167047.981919436</v>
       </c>
       <c r="F6" t="n">
+        <v>492460.4437267918</v>
+      </c>
+      <c r="G6" t="n">
+        <v>492460.4437267916</v>
+      </c>
+      <c r="H6" t="n">
         <v>492460.4437267914</v>
-      </c>
-      <c r="G6" t="n">
-        <v>492460.4437267913</v>
-      </c>
-      <c r="H6" t="n">
-        <v>492460.4437267917</v>
       </c>
       <c r="I6" t="n">
         <v>492460.4437267915</v>
       </c>
       <c r="J6" t="n">
-        <v>274929.2413295141</v>
+        <v>274929.241329514</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267915</v>
+        <v>492460.4437267912</v>
       </c>
       <c r="L6" t="n">
-        <v>492460.4437267914</v>
+        <v>492460.443726791</v>
       </c>
       <c r="M6" t="n">
-        <v>407405.4157912795</v>
+        <v>407405.4157912794</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267914</v>
+        <v>492460.443726791</v>
       </c>
       <c r="O6" t="n">
         <v>492460.4437267915</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.4437267914</v>
+        <v>492460.4437267912</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26807,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>243.7637707342587</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.501171845851</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>3.144448646242751</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>109.053535425645</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>294.3692147095461</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.4435131414761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>60.66007681866864</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>127.6732055979524</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>198.2808315333519</v>
+        <v>103.358739362824</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.86650150189686</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>166.6174291483827</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28293,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-3.430228579335942e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,19 +31846,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>318.3985571819317</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>302.3396059822671</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6116741576914</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>640.7275049411303</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647493</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>176.2645232599133</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>163.7852262023929</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>432.0572943778172</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>498.1312604966859</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.985332142731</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317037.889212171</v>
+        <v>2313025.279198177</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9500189.557804352</v>
+        <v>9500189.557804354</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>56.22992883261801</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>142.2765993766885</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4530101301301</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>33.3830437605888</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>85.77388582790053</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>94.08066068263919</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>245.882229354589</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>59.09222624065444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>19.91555826189058</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>74.96337793487972</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>107.9721668030643</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.0891016767036</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="I28" t="n">
-        <v>50.0620915095756</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>142.6584215897762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080137</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998631</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>844.89460572423</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>675.9584227963231</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>525.8417833839874</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>377.9286898015943</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.676735765777</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1065.68718486776</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>844.89460572423</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3181.594906913448</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.2242361621296</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>711.2880532342227</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>711.2880532342227</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>558.3633855315313</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>172.5751329332871</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.355900829572</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.3613929424835</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>785.8024369162533</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.0098577727232</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1245.221808421813</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>295.5818533952728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>148.6919058973624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.613315601761</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>888.6771326738537</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>738.560493261518</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>590.6473996791249</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.043910473548</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.05435957553</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.261780432</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>580.8993044876688</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>432.9862109052757</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0962634073653</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>286.0962634073653</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H28" t="n">
-        <v>144.3844322495634</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6913,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6085800303782</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101264</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>71.47058471168945</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.7428785052337</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>40.64330621514807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="I28" t="n">
-        <v>31.20374480898993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>83.05123379926093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.5487903941883</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26450,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789309</v>
+        <v>-911861.3698789305</v>
       </c>
       <c r="C6" t="n">
-        <v>416883.3758486621</v>
+        <v>416883.3758486619</v>
       </c>
       <c r="D6" t="n">
-        <v>416883.3758486618</v>
+        <v>416883.375848662</v>
       </c>
       <c r="E6" t="n">
-        <v>167047.981919436</v>
+        <v>166700.602665079</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267918</v>
+        <v>492113.0644724345</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267916</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267914</v>
+        <v>492113.0644724341</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267915</v>
+        <v>492113.0644724342</v>
       </c>
       <c r="J6" t="n">
-        <v>274929.241329514</v>
+        <v>274581.8620751567</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724343</v>
       </c>
       <c r="L6" t="n">
-        <v>492460.443726791</v>
+        <v>492113.0644724346</v>
       </c>
       <c r="M6" t="n">
-        <v>407405.4157912794</v>
+        <v>407058.0365369223</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.443726791</v>
+        <v>492113.0644724343</v>
       </c>
       <c r="O6" t="n">
-        <v>492460.4437267915</v>
+        <v>492113.0644724346</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.4437267912</v>
+        <v>492113.0644724342</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>313.501171845851</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.144448646242751</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>198.2808315333505</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>294.3692147095461</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.66007681866864</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>312.7953850590723</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>103.358739362824</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>166.6174291483827</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.430228579335942e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2313025.279198177</v>
+        <v>2314785.809500962</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9500189.557804354</v>
+        <v>9500189.557804352</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>282.6988068886412</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>261.7337600035963</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>114.2656173771025</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.4530101301301</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>163.4879632450851</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>192.1675620474806</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>94.08066068263919</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>79.03187764303651</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>77.31354443380498</v>
       </c>
       <c r="U10" t="n">
-        <v>85.47654389282634</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>74.96337793487972</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>35.41770597126623</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>189.2380031216304</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>104.4564809702499</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>19.86507844888302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2240.582457090721</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066532</v>
+        <v>2240.582457090721</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738579</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>583.826112045951</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336153</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512222</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9064315533118</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040977</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2141.344278546771</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522581</v>
+        <v>2141.344278546771</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4716,28 +4716,28 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4758,10 +4758,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
         <v>1478.501411349798</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078693</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>916.6290841382818</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D8" t="n">
-        <v>558.3633855315313</v>
+        <v>985.1133520179771</v>
       </c>
       <c r="E8" t="n">
-        <v>172.5751329332871</v>
+        <v>599.3250994197329</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>188.3391946301253</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118627</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142815</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1840.954604762406</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1586.270116556519</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.852946519558</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,64 +5257,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556945</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>129.5921236250085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,16 +7192,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925216</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.47058471168945</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>62.89964020219765</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>75.37549921168744</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.4007578696825</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815701</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815701</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26447,10 +26447,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680576</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680587</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789305</v>
+        <v>-911861.369878931</v>
       </c>
       <c r="C6" t="n">
         <v>416883.3758486619</v>
@@ -26530,40 +26530,40 @@
         <v>416883.375848662</v>
       </c>
       <c r="E6" t="n">
-        <v>166700.602665079</v>
+        <v>167013.2439940008</v>
       </c>
       <c r="F6" t="n">
-        <v>492113.0644724345</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="G6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="H6" t="n">
-        <v>492113.0644724341</v>
+        <v>492425.7058013559</v>
       </c>
       <c r="I6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="J6" t="n">
-        <v>274581.8620751567</v>
+        <v>274894.5034040782</v>
       </c>
       <c r="K6" t="n">
-        <v>492113.0644724343</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="L6" t="n">
-        <v>492113.0644724346</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="M6" t="n">
-        <v>407058.0365369223</v>
+        <v>407370.6778658439</v>
       </c>
       <c r="N6" t="n">
-        <v>492113.0644724343</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="O6" t="n">
-        <v>492113.0644724346</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="P6" t="n">
-        <v>492113.0644724342</v>
+        <v>492425.7058013554</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.0350347748393</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>103.5391317674113</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>171.9462208285103</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.2808315333505</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>201.7849285259224</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>94.04427615813225</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>312.7953850590723</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>331.8898480104169</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423642</v>
       </c>
       <c r="U10" t="n">
-        <v>200.7352943127866</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
